--- a/en/application_framework/application_framework/handlers/images/ProcessResidentHandler/images.xlsx
+++ b/en/application_framework/application_framework/handlers/images/ProcessResidentHandler/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tie303177\work\ssd\oss\nablarch-document\en\application_framework\application_framework\handlers\images\ProcessResidentHandler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F024091-0593-49BA-83D5-2F1FE1ACDF12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="28035" windowHeight="14580"/>
+    <workbookView xWindow="2205" yWindow="1440" windowWidth="12615" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="内部フォーワードハンドラ" sheetId="4" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -68,6 +74,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -77,28 +86,36 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="428624"/>
-          <a:ext cx="2800350" cy="3857626"/>
+          <a:off x="609599" y="428624"/>
+          <a:ext cx="3190875" cy="3857626"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj" fmla="val 8607"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
@@ -121,23 +138,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>プロセス常駐化ハンドラ</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>	</a:t>
+            <a:t>Process resident handler</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -146,25 +152,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
+      <xdr:colOff>114298</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="角丸四角形 45"/>
+        <xdr:cNvPr id="46" name="角丸四角形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200148" y="1029150"/>
-          <a:ext cx="2000251" cy="342000"/>
+          <a:off x="1114423" y="1029150"/>
+          <a:ext cx="2181227" cy="342000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -190,7 +202,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -199,13 +211,8 @@
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>後続ハンドラの呼び出し</a:t>
+            <a:t>Call subsequent handlers</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -213,25 +220,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000500" y="1028700"/>
+          <a:off x="4286250" y="1028700"/>
           <a:ext cx="1600200" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -258,11 +271,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:latin typeface="Consolas" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
+            <a:t>Subsequent handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -271,20 +284,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="3"/>
           <a:endCxn id="10" idx="1"/>
@@ -292,8 +311,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200399" y="1200150"/>
-          <a:ext cx="800101" cy="0"/>
+          <a:off x="3295650" y="1200150"/>
+          <a:ext cx="990600" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -321,26 +340,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="2915550"/>
-          <a:ext cx="2000251" cy="342000"/>
+          <a:off x="1066800" y="2915550"/>
+          <a:ext cx="2276475" cy="342000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -366,18 +391,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>一定時間待機</a:t>
+            <a:t>Wait for a certain period</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -385,29 +405,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="46" idx="2"/>
           <a:endCxn id="22" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2200274" y="1371150"/>
-          <a:ext cx="1" cy="343350"/>
+        <a:xfrm flipH="1">
+          <a:off x="2200275" y="1371150"/>
+          <a:ext cx="4762" cy="343350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -436,32 +462,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>200023</xdr:colOff>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114297</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="15" idx="1"/>
           <a:endCxn id="46" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="1200148" y="1200150"/>
-          <a:ext cx="2" cy="1886400"/>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="1066799" y="1200150"/>
+          <a:ext cx="47623" cy="1886400"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 11430100000"/>
+            <a:gd name="adj1" fmla="val -480020"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -500,7 +532,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="フローチャート : 判断 21"/>
+        <xdr:cNvPr id="22" name="フローチャート : 判断 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -532,25 +570,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>後続ハンドラ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>での例外有無</a:t>
+            <a:t>Exception in subsequent handler</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -566,13 +590,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="2"/>
           <a:endCxn id="15" idx="0"/>
@@ -581,7 +611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2200275" y="2571750"/>
-          <a:ext cx="1" cy="343800"/>
+          <a:ext cx="4763" cy="343800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -610,24 +640,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1933575" y="2524125"/>
+          <a:off x="1819275" y="2514600"/>
           <a:ext cx="400050" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -657,12 +693,16 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>無</a:t>
+            <a:t>No</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -683,7 +723,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -718,12 +764,16 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" baseline="0">
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>有</a:t>
+            <a:t>Yes</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" baseline="0">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -731,26 +781,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvPr id="35" name="角丸四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1200150" y="3429900"/>
-          <a:ext cx="2000251" cy="684900"/>
+          <a:off x="1019175" y="3429900"/>
+          <a:ext cx="2343151" cy="684900"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -776,34 +832,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
               <a:effectLst/>
               <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>例外の種類に応じた処理と</a:t>
+            <a:t>Process according to the type of exception and termination of this handler</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>このハンドラの処理を終了</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:effectLst/>
-            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
-            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -818,13 +853,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 20"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
           <a:endCxn id="35" idx="3"/>
@@ -833,11 +874,11 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3000375" y="2143125"/>
-          <a:ext cx="200026" cy="1629225"/>
+          <a:ext cx="361951" cy="1629225"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 214285"/>
+            <a:gd name="adj1" fmla="val 163158"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -865,7 +906,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -907,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,9 +981,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -975,6 +1033,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1150,10 +1225,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
